--- a/biology/Médecine/Loge_antébrachiale_postérieure/Loge_antébrachiale_postérieure.xlsx
+++ b/biology/Médecine/Loge_antébrachiale_postérieure/Loge_antébrachiale_postérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loge_ant%C3%A9brachiale_post%C3%A9rieure</t>
+          <t>Loge_antébrachiale_postérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge antébrachiale postérieure est la loge ostéo-aponévrotique située en arrière de l'avant-bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loge_ant%C3%A9brachiale_post%C3%A9rieure</t>
+          <t>Loge_antébrachiale_postérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge antébrachiale postérieure est limitée à l'avant par les faces postérieures du radius, de l'ulna et de la membrane interosseuse de l'avant-bras.
 En arrière et latéralement, elle est fermée par le fascia antébrachial qui complète la fermeture antérieure en envoyant en profondeur deux septums.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loge_ant%C3%A9brachiale_post%C3%A9rieure</t>
+          <t>Loge_antébrachiale_postérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,50 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La loge antébrachiale postérieure contient douze muscles. Ils se répartissent entre la partie profonde et la partie superficielle de la loge. La norme TA98 reconnaissait une partie latérale pour cette loge.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loge antébrachiale postérieure contient douze muscles. Ils se répartissent entre la partie profonde et la partie superficielle de la loge. La norme TA98 reconnaissait une partie latérale pour cette loge.
 Ils se répartissent en muscles intrinsèques qui agissent sur l'avant-bras et muscles extrinsèques qui agissent en dehors de l'avant-bras: sur la main et les doigts.
 Tous les muscles sont innervés par le nerf radial et ses branches.
-Variantes
-La couche profonde de la masse des extenseurs précurseurs est connue pour être phylogénétiquement instable et est en cours d'évolution car une forte variabilité est observée chez les primates non humains[1],[2],[3],[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Loge_antébrachiale_postérieure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loge_ant%C3%A9brachiale_post%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La couche profonde de la masse des extenseurs précurseurs est connue pour être phylogénétiquement instable et est en cours d'évolution car une forte variabilité est observée chez les primates non humains.
 Chez l'homme, des muscles anormaux ou supplémentaires peuvent être observés dans une petite partie de la population :
 muscle extenseur propre du médium,
 muscle extenseur propre de l'index et du médium,
@@ -561,33 +612,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Loge_ant%C3%A9brachiale_post%C3%A9rieure</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Loge_antébrachiale_postérieure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Loge_ant%C3%A9brachiale_post%C3%A9rieure</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la superfamille des hominoidea ou singes, les configurations des muscles de la loge postérieure de l'avant-bras partagent des caractéristiques similaires. Cependant, le muscle anconé n'est généralement pas présent dans les hylobates (gibbons)[5]. De plus, le muscle extenseur du pouce n'est présent que dans le genre homo (humains) et le genre hylobates. les muscles court extenseur du pouce et long abducteur du pouce sont fusionnée en un seul muscle dans d'autres genres[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la superfamille des hominoidea ou singes, les configurations des muscles de la loge postérieure de l'avant-bras partagent des caractéristiques similaires. Cependant, le muscle anconé n'est généralement pas présent dans les hylobates (gibbons). De plus, le muscle extenseur du pouce n'est présent que dans le genre homo (humains) et le genre hylobates. les muscles court extenseur du pouce et long abducteur du pouce sont fusionnée en un seul muscle dans d'autres genres.
 </t>
         </is>
       </c>
